--- a/docs/stats.xlsx
+++ b/docs/stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danni\Documents\dev\GalaxyGame\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Libraries\dev\GalaxyGame\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9329CC7A-8702-486E-AF98-C688899D9473}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521DF362-8285-4898-9744-ED29783B00BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{9D5E3897-D2D9-4A30-A320-252916820A54}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{9D5E3897-D2D9-4A30-A320-252916820A54}"/>
   </bookViews>
   <sheets>
     <sheet name="buildings" sheetId="2" r:id="rId1"/>
@@ -1104,19 +1104,19 @@
       <selection activeCell="G16" sqref="G16:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>105</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>105</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>105</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>105</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>122</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>122</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>122</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>131</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>131</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>131</v>
       </c>
@@ -1422,16 +1422,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5790B0B0-FF3C-4637-B277-E19F2C5BD9A3}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1328125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>225</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>226</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>224</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>229</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>230</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>232</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>231</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>224</v>
       </c>
@@ -1552,7 +1552,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>141.75</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>238.77179999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>324.729648</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>414.0303012</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>506.77308866880003</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>603.05997551587188</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>702.99562860135927</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>806.68748382005981</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>914.24581499606779</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>11</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>1025.783804425588</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>12</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>1141.4176151062907</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>13</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>1261.2664646924511</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>14</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>1385.4527012160158</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>15</v>
       </c>
@@ -1919,16 +1919,16 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.86328125" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="135.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="135.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -2140,18 +2140,18 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.19921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.53125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="70.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.9296875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="15.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="70.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -2499,16 +2499,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605C8080-0F0B-4513-99A7-715E70F8FA48}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="38.59765625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="38.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2522,7 +2523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -2536,7 +2537,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>142</v>
       </c>
@@ -2550,7 +2551,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>144</v>
       </c>
@@ -2564,7 +2565,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>145</v>
       </c>
@@ -2578,7 +2579,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>160</v>
       </c>
@@ -2592,7 +2593,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>164</v>
       </c>
@@ -2619,13 +2620,13 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.3984375" customWidth="1"/>
-    <col min="3" max="3" width="44.06640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2639,7 +2640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -2653,7 +2654,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>148</v>
       </c>
@@ -2667,7 +2668,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2681,7 +2682,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2695,7 +2696,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>123</v>
       </c>
@@ -2709,7 +2710,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>148</v>
       </c>
@@ -2723,7 +2724,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>181</v>
       </c>
@@ -2737,7 +2738,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>181</v>
       </c>
@@ -2751,7 +2752,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>181</v>
       </c>
@@ -2765,7 +2766,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>181</v>
       </c>
@@ -2779,7 +2780,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>181</v>
       </c>
@@ -2793,7 +2794,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>181</v>
       </c>
@@ -2807,7 +2808,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>181</v>
       </c>
@@ -2834,12 +2835,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.86328125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2853,7 +2854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>201</v>
       </c>
@@ -2864,7 +2865,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>207</v>
       </c>
@@ -2875,7 +2876,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>204</v>
       </c>
@@ -2886,7 +2887,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>213</v>
       </c>
@@ -2897,7 +2898,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>209</v>
       </c>
